--- a/data/case1/13/V1_14.xlsx
+++ b/data/case1/13/V1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999757376967</v>
+        <v>0.99999999487151059</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99907208083344523</v>
+        <v>0.99889873536450113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99767371320691434</v>
+        <v>0.99656729392587118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1.0025302832885292</v>
+        <v>1.0016924836169485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99431249013510736</v>
+        <v>0.99375030572468159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.97489190193730391</v>
+        <v>0.97569977940575847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.97170010608041879</v>
+        <v>0.97210189935938152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96695650850839532</v>
+        <v>0.96705186783595831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.96310103303999917</v>
+        <v>0.96252199504755964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.96016913036154961</v>
+        <v>0.95891390538645804</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.95976144047195033</v>
+        <v>0.95842214483027766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.9592418245725115</v>
+        <v>0.95564312960357634</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95940666431244259</v>
+        <v>0.94435875307966199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95524006116171156</v>
+        <v>0.94019194994113042</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95264892434607229</v>
+        <v>0.93760072266518246</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95014268711262817</v>
+        <v>0.93509441104433577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.94643498205010868</v>
+        <v>0.93138664496422197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94532606113169715</v>
+        <v>0.93027773140235026</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99801882742364267</v>
+        <v>0.99784551130628985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.99090167104230487</v>
+        <v>0.99072844714055697</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98950315477182449</v>
+        <v>0.98932994630757998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98823864602528877</v>
+        <v>0.98806543754887777</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.99063975120914327</v>
+        <v>0.98823368544268675</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97761973943180758</v>
+        <v>0.97521354860285159</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.97116287692716796</v>
+        <v>0.96875667218342998</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.97297408328016433</v>
+        <v>0.97403454367679687</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.97119430016930541</v>
+        <v>0.97196329154095462</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.96507414454713425</v>
+        <v>0.96448720050794035</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.96122760191723611</v>
+        <v>0.9596405234292511</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.96165879962075285</v>
+        <v>0.958302634499689</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.95926821099234427</v>
+        <v>0.96394107854377409</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.9594149499234399</v>
+        <v>0.96688269697347629</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.96127251938916825</v>
+        <v>0.96636268233891209</v>
       </c>
     </row>
   </sheetData>
